--- a/uploads/OtrosADM/OtrosADM_CambioLinea.xlsx
+++ b/uploads/OtrosADM/OtrosADM_CambioLinea.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/duplicado cambio de linea/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/OtrosADM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_5E1E61032231921FD2FE31D2F87EDB84A2962C76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAE496FD-55F9-4711-8F66-F25FB081DFFB}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_5E1E61032231921FD2FE31D2F87EDB84A2962C76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{166C48AB-B113-46D8-BC46-A3112C56AD89}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>id_categoria</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>5x2</t>
+  </si>
+  <si>
+    <t>total_clp</t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,6 +117,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -123,7 +137,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,15 +444,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,12 +471,15 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>37.5</v>
       </c>
       <c r="C2">
@@ -473,14 +492,17 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>20083803</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>37.5</v>
       </c>
       <c r="C3">
@@ -493,7 +515,10 @@
         <v>8</v>
       </c>
       <c r="F3">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>20083803</v>
       </c>
     </row>
   </sheetData>
